--- a/DOM_Banner/output/dept0713/Edward P Gelmann_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Edward P Gelmann_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,24 +452,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361241544</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Supplementary Figure 1 from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -472,50 +477,55 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22371183</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22371183</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,24 +539,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361245486</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Supplementary Figure 1 from Germ-Line Mutation of &amp;lt;i&amp;gt;NKX3.1&amp;lt;/i&amp;gt; Cosegregates with Hereditary Prostate Cancer and Alters the Homeodomain Structure and Function</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -554,50 +564,55 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22365087</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22365087</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,24 +626,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361250621</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Supplementary Figure 1 from NKX3.1 Homeodomain Protein Binds to Topoisomerase I and Enhances Its Activity</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -636,50 +651,55 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22366775</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22366775</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361250739</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Data from NKX3.1 Homeodomain Protein Binds to Topoisomerase I and Enhances Its Activity</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,50 +738,55 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.c.6495284</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.c.6495284</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,24 +800,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361253394</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Supplementary Figure 1 from Germ-Line Mutation of &amp;lt;i&amp;gt;NKX3.1&amp;lt;/i&amp;gt; Cosegregates with Hereditary Prostate Cancer and Alters the Homeodomain Structure and Function</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,50 +825,55 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22365087.v1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22365087.v1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361253436</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Data from Germ-Line Mutation of &amp;lt;i&amp;gt;NKX3.1&amp;lt;/i&amp;gt; Cosegregates with Hereditary Prostate Cancer and Alters the Homeodomain Structure and Function</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,50 +912,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.c.6494526</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.c.6494526</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361253450</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Data from Germ-Line Mutation of &amp;lt;i&amp;gt;NKX3.1&amp;lt;/i&amp;gt; Cosegregates with Hereditary Prostate Cancer and Alters the Homeodomain Structure and Function</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,50 +999,55 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.c.6494526.v1</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.c.6494526.v1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361265259</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Data from NKX3.1 Homeodomain Protein Binds to Topoisomerase I and Enhances Its Activity</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,50 +1086,55 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.c.6495284.v1</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.c.6495284.v1</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,24 +1148,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361265342</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Supplementary Figure 1 from NKX3.1 Homeodomain Protein Binds to Topoisomerase I and Enhances Its Activity</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1128,50 +1173,55 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22366775.v1</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22366775.v1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,24 +1235,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361820389</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Supplementary Material from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1210,50 +1260,55 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22426435.v1</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22426435.v1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,27 +1317,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
+          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361822852</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Data from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
+          <t>https://openalex.org/W4361823551</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>Data from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1292,50 +1347,55 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6499377.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6512338</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6499377.v1</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6512338</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,27 +1404,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
+          <t>Shyh‐Han Tan, Ayush Dagvadorj, Feng Shen, Lin Gu, Zhiyong Liao, Junaid Abdulghani, Ying Zhang, Edward P. Gelmann, Tobias Zellweger, Zoran Čulig, Tapio Visakorpi, Lukas Bubendorf, Robert A. Kirken, James G. Karras, Marja T. Nevalainen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361823551</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Data from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
+          <t>https://openalex.org/W4361823741</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1374,50 +1434,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6512338</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6496695</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6512338</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6496695</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,27 +1491,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shyh‐Han Tan, Ayush Dagvadorj, Feng Shen, Lin Gu, Zhiyong Liao, Junaid Abdulghani, Ying Zhang, Edward P. Gelmann, Tobias Zellweger, Zoran Čulig, Tapio Visakorpi, Lukas Bubendorf, Robert A. Kirken, James G. Karras, Marja T. Nevalainen</t>
+          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361823741</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Data from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
+          <t>https://openalex.org/W4361825130</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>Data from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6496695</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6512338.v1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6496695</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6512338.v1</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,27 +1578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
+          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361825130</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Data from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
+          <t>https://openalex.org/W4361834191</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figures S1-S7 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6512338.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22405082.v1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6512338.v1</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22405082.v1</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,24 +1670,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361834191</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Supplementary Figures S1-S7 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>https://openalex.org/W4361848184</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Supplementary Figure Legend and Reference from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1620,50 +1695,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405082.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22405085.v1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22405082.v1</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22405085.v1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,24 +1757,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361848184</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legend and Reference from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>https://openalex.org/W4361848198</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Supplementary Tables S1-S5 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1702,50 +1782,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405085.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22405079.v1</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22405085.v1</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22405079.v1</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,29 +1839,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
+          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361848198</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Supplementary Tables S1-S5 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>https://openalex.org/W4361870023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Supplementary Tables 1-2, Figure 1 from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405079.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22379880</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22405079.v1</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22379880</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,27 +1926,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
+          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361870023</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Supplementary Tables 1-2, Figure 1 from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
+          <t>https://openalex.org/W4361877926</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>Supplementary Material from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1866,50 +1956,55 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22379880</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22426435</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22379880</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22426435</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,27 +2013,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
+          <t>Shyh‐Han Tan, Ayush Dagvadorj, Feng Shen, Lin Gu, Zhiyong Liao, Junaid Abdulghani, Ying Zhang, Edward P. Gelmann, Tobias Zellweger, Zoran Čulig, Tapio Visakorpi, Lukas Bubendorf, Robert A. Kirken, James G. Karras, Marja T. Nevalainen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361877926</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Supplementary Material from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
+          <t>https://openalex.org/W4361892087</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure 1 from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1948,50 +2043,55 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22426435</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22371183.v1</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22426435</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22371183.v1</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,29 +2100,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shyh‐Han Tan, Ayush Dagvadorj, Feng Shen, Lin Gu, Zhiyong Liao, Junaid Abdulghani, Ying Zhang, Edward P. Gelmann, Tobias Zellweger, Zoran Čulig, Tapio Visakorpi, Lukas Bubendorf, Robert A. Kirken, James G. Karras, Marja T. Nevalainen</t>
+          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361892087</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Supplementary Figure 1 from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
+          <t>https://openalex.org/W4361893509</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Supplementary Tables 1-2, Figure 1 from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2030,50 +2130,55 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22371183.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22379880.v1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22371183.v1</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22379880.v1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,29 +2187,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
+          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361893509</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Supplementary Tables 1-2, Figure 1 from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
+          <t>https://openalex.org/W4362283403</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Supplementary Figures S1-S7 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2112,50 +2217,55 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22379880.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22405082</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22379880.v1</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22405082</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2169,24 +2279,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362283403</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Supplementary Figures S1-S7 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>https://openalex.org/W4362288210</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Supplementary Figure Legend and Reference from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2194,50 +2304,55 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405082</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22405085</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22405082</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22405085</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2251,24 +2366,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362288210</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legend and Reference from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>https://openalex.org/W4362291307</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Supplementary Tables S1-S5 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2276,50 +2391,55 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405085</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22405079</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22405085</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22405079</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2328,29 +2448,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
+          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362291307</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Supplementary Tables S1-S5 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>https://openalex.org/W4361822852</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Data from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2358,50 +2478,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405079</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6499377.v1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22405079</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6499377.v1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Edward P Gelmann_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Edward P Gelmann_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1317,27 +1317,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
+          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361823551</t>
+          <t>https://openalex.org/W4361822852</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Data from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
+          <t>Data from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6512338</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6499377.v1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6512338</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6499377.v1</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,27 +1404,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shyh‐Han Tan, Ayush Dagvadorj, Feng Shen, Lin Gu, Zhiyong Liao, Junaid Abdulghani, Ying Zhang, Edward P. Gelmann, Tobias Zellweger, Zoran Čulig, Tapio Visakorpi, Lukas Bubendorf, Robert A. Kirken, James G. Karras, Marja T. Nevalainen</t>
+          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361823741</t>
+          <t>https://openalex.org/W4361823551</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Data from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
+          <t>Data from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6496695</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6512338</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6496695</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6512338</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,27 +1491,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
+          <t>Shyh‐Han Tan, Ayush Dagvadorj, Feng Shen, Lin Gu, Zhiyong Liao, Junaid Abdulghani, Ying Zhang, Edward P. Gelmann, Tobias Zellweger, Zoran Čulig, Tapio Visakorpi, Lukas Bubendorf, Robert A. Kirken, James G. Karras, Marja T. Nevalainen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361825130</t>
+          <t>https://openalex.org/W4361823741</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Data from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
+          <t>Data from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6512338.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6496695</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6512338.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6496695</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,27 +1578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
+          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; </t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361834191</t>
+          <t>https://openalex.org/W4361825130</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Supplementary Figures S1-S7 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>Data from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405082.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6512338.v1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405082.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6512338.v1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1675,12 +1675,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361848184</t>
+          <t>https://openalex.org/W4361834191</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legend and Reference from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>Supplementary Figures S1-S7 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405085.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22405082.v1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405085.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22405082.v1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361848198</t>
+          <t>https://openalex.org/W4361848184</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Supplementary Tables S1-S5 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>Supplementary Figure Legend and Reference from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405079.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22405085.v1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405079.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22405085.v1</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,22 +1839,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
+          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; </t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361870023</t>
+          <t>https://openalex.org/W4361848198</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Supplementary Tables 1-2, Figure 1 from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
+          <t>Supplementary Tables S1-S5 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22379880</t>
+          <t>https://doi.org/10.1158/0008-5472.22405079.v1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22379880</t>
+          <t>https://doi.org/10.1158/0008-5472.22405079.v1</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,27 +1926,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
+          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361877926</t>
+          <t>https://openalex.org/W4361870023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Supplementary Material from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
+          <t>Supplementary Tables 1-2, Figure 1 from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22426435</t>
+          <t>https://doi.org/10.1158/0008-5472.22379880</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22426435</t>
+          <t>https://doi.org/10.1158/0008-5472.22379880</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,27 +2013,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Shyh‐Han Tan, Ayush Dagvadorj, Feng Shen, Lin Gu, Zhiyong Liao, Junaid Abdulghani, Ying Zhang, Edward P. Gelmann, Tobias Zellweger, Zoran Čulig, Tapio Visakorpi, Lukas Bubendorf, Robert A. Kirken, James G. Karras, Marja T. Nevalainen</t>
+          <t>Bin Cai, Maho Shibata, Hailan Zhang, Sarah K. Bergren, Michael M. Shen, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361892087</t>
+          <t>https://openalex.org/W4361877926</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Supplementary Figure 1 from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
+          <t>Supplementary Material from CRISPR/Cas9-Mediated Point Mutation in &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Prolongs Protein Half-Life and Reverses Effects &amp;lt;i&amp;gt;Nkx3.1&amp;lt;/i&amp;gt; Allelic Loss</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22371183.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22426435</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22371183.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22426435</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,22 +2100,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
+          <t>Shyh‐Han Tan, Ayush Dagvadorj, Feng Shen, Lin Gu, Zhiyong Liao, Junaid Abdulghani, Ying Zhang, Edward P. Gelmann, Tobias Zellweger, Zoran Čulig, Tapio Visakorpi, Lukas Bubendorf, Robert A. Kirken, James G. Karras, Marja T. Nevalainen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361893509</t>
+          <t>https://openalex.org/W4361892087</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Supplementary Tables 1-2, Figure 1 from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
+          <t>Supplementary Figure 1 from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22379880.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22371183.v1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22379880.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22371183.v1</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
+          <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; </t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362283403</t>
+          <t>https://openalex.org/W4361893509</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Supplementary Figures S1-S7 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>Supplementary Tables 1-2, Figure 1 from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405082</t>
+          <t>https://doi.org/10.1158/0008-5472.22379880.v1</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405082</t>
+          <t>https://doi.org/10.1158/0008-5472.22379880.v1</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2284,12 +2284,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362288210</t>
+          <t>https://openalex.org/W4362283403</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legend and Reference from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>Supplementary Figures S1-S7 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405085</t>
+          <t>https://doi.org/10.1158/0008-5472.22405082</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405085</t>
+          <t>https://doi.org/10.1158/0008-5472.22405082</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362291307</t>
+          <t>https://openalex.org/W4362288210</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Supplementary Tables S1-S5 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+          <t>Supplementary Figure Legend and Reference from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405079</t>
+          <t>https://doi.org/10.1158/0008-5472.22405085</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22405079</t>
+          <t>https://doi.org/10.1158/0008-5472.22405085</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2448,85 +2448,433 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4362291307</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Supplementary Tables S1-S5 from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22405079</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22405079</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Erin Muhlbradt, Ekaterina Asatiani, Elizabeth Ortner, Antai Wang, Edward P. Gelmann</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4361822852</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392679220</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Data from NKX3.1 Activates Expression of Insulin-like Growth Factor Binding Protein-3 to Mediate Insulin-like Growth Factor-I Signaling and Cell Proliferation</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6499377.v1</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6499377</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6499377.v1</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6499377</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392679801</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Data from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6506729</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6506729</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Bin Cai, Zheng Tian, Edward P. Gelmann</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392687152</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Data from NKX3.1 Suppresses &amp;lt;i&amp;gt;TMPRSS2–ERG&amp;lt;/i&amp;gt; Gene Rearrangement and Mediates Repair of Androgen Receptor–Induced DNA Damage</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6506729.v1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6506729.v1</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Shyh‐Han Tan, Ayush Dagvadorj, Feng Shen, Lin Gu, Zhiyong Liao, Junaid Abdulghani, Ying Zhang, Edward P. Gelmann, Tobias Zellweger, Zoran Čulig, Tapio Visakorpi, Lukas Bubendorf, Robert A. Kirken, James G. Karras, Marja T. Nevalainen</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392692487</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Data from Transcription Factor Stat5 Synergizes with Androgen Receptor in Prostate Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6496695.v1</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6496695.v1</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
